--- a/Daten/Schulferien/FER2022_23.xlsx
+++ b/Daten/Schulferien/FER2022_23.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achim\OneDrive\Hochschule\DSC_Semester4\Data Analytics and Business Intelligence 2\Projekt\dabi2-project\Daten\Schulferien\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46604028-1E5B-4F9C-8533-FB2405B007D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,39 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">FERIEN IM SCHULJAHR 2022/2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">in den Ländern in der Bundesrepublik Deutschland</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <vertAlign val="superscript"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://www.kmk.org/ferienkalender.html</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Land*</t>
   </si>
@@ -85,7 +54,7 @@
 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Baden-Württemberg (5)</t>
+    <t>Baden-Württemberg (5)</t>
   </si>
   <si>
     <r>
@@ -120,7 +89,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">21.12. – 07.01.</t>
+    <t>21.12. – 07.01.</t>
   </si>
   <si>
     <t>--</t>
@@ -158,47 +127,47 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">30.05. – 09.06.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.07. – 09.09.</t>
+    <t>30.05. – 09.06.</t>
+  </si>
+  <si>
+    <t>27.07. – 09.09.</t>
   </si>
   <si>
     <t>Bayern</t>
   </si>
   <si>
-    <t xml:space="preserve">31.10. – 04.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.12. – 07.01.</t>
+    <t>31.10. – 04.11.</t>
+  </si>
+  <si>
+    <t>24.12. – 07.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">20.02. – 24.02.
+    <t>20.02. – 24.02.
 03.04. – 15.04.</t>
   </si>
   <si>
-    <t xml:space="preserve">30.05. – 09.06.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.07. – 11.09.</t>
+    <t>30.05. – 09.06.</t>
+  </si>
+  <si>
+    <t>31.07. – 11.09.</t>
   </si>
   <si>
     <t>Berlin</t>
   </si>
   <si>
-    <t xml:space="preserve">24.10. – 05.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.12. – 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.01. – 04.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.04. – 14.04.</t>
+    <t>24.10. – 05.11.</t>
+  </si>
+  <si>
+    <t>22.12. – 02.01.</t>
+  </si>
+  <si>
+    <t>30.01. – 04.02.</t>
+  </si>
+  <si>
+    <t>03.04. – 14.04.</t>
   </si>
   <si>
     <r>
@@ -219,240 +188,240 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">13.07. – 25.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.10. – 05.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.12. – 03.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.01. – 03.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.04. – 14.04.</t>
+    <t>13.07. – 25.08.</t>
+  </si>
+  <si>
+    <t>Brandenburg (1)</t>
+  </si>
+  <si>
+    <t>24.10. – 05.11.</t>
+  </si>
+  <si>
+    <t>22.12. – 03.01.</t>
+  </si>
+  <si>
+    <t>30.01. – 03.02.</t>
+  </si>
+  <si>
+    <t>03.04. – 14.04.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">13.07. – 26.08.</t>
+    <t>13.07. – 26.08.</t>
   </si>
   <si>
     <t>Bremen</t>
   </si>
   <si>
-    <t xml:space="preserve">17.10. – 29.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 06.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.01. – 31.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.03. – 11.04.</t>
+    <t>17.10. – 29.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 06.01.</t>
+  </si>
+  <si>
+    <t>30.01. – 31.01.</t>
+  </si>
+  <si>
+    <t>27.03. – 11.04.</t>
   </si>
   <si>
     <t>19.05./30.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">06.07. – 16.08.</t>
+    <t>06.07. – 16.08.</t>
   </si>
   <si>
     <t>Hamburg</t>
   </si>
   <si>
-    <t xml:space="preserve">10.10. – 21.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 06.01.</t>
+    <t>10.10. – 21.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 06.01.</t>
   </si>
   <si>
     <t>27.01.</t>
   </si>
   <si>
-    <t xml:space="preserve">06.03. – 17.03.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.05. – 19.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.07. – 23.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.10. – 29.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.12. – 07.01.</t>
+    <t>06.03. – 17.03.</t>
+  </si>
+  <si>
+    <t>15.05. – 19.05.</t>
+  </si>
+  <si>
+    <t>13.07. – 23.08.</t>
+  </si>
+  <si>
+    <t>Hessen (4)</t>
+  </si>
+  <si>
+    <t>24.10. – 29.10.</t>
+  </si>
+  <si>
+    <t>22.12. – 07.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">03.04. – 22.04.</t>
+    <t>03.04. – 22.04.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">24.07. – 01.09.</t>
+    <t>24.07. – 01.09.</t>
   </si>
   <si>
     <t>Mecklenburg-Vorpommern</t>
   </si>
   <si>
-    <t xml:space="preserve">10.10. – 14.10
+    <t>10.10. – 14.10
 01.11. – 02.11.</t>
   </si>
   <si>
-    <t xml:space="preserve">22.12. – 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.02. – 18.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.04. – 12.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.05.
+    <t>22.12. – 02.01.</t>
+  </si>
+  <si>
+    <t>06.02. – 18.02</t>
+  </si>
+  <si>
+    <t>03.04. – 12.04.</t>
+  </si>
+  <si>
+    <t>19.05.
 26.05. – 30.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">17.07. - 26.08.</t>
+    <t>17.07. - 26.08.</t>
   </si>
   <si>
     <t>Niedersachsen</t>
   </si>
   <si>
-    <t xml:space="preserve">17.10. – 28.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 06.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.01. – 31.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.03. – 11.04.</t>
+    <t>17.10. – 28.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 06.01.</t>
+  </si>
+  <si>
+    <t>30.01. – 31.01.</t>
+  </si>
+  <si>
+    <t>27.03. – 11.04.</t>
   </si>
   <si>
     <t>19.05./30.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">06.07. – 16.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.10. – 15.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 06.01.</t>
+    <t>06.07. – 16.08.</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen (3)</t>
+  </si>
+  <si>
+    <t>04.10. – 15.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 06.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">03.04. – 15.04.</t>
+    <t>03.04. – 15.04.</t>
   </si>
   <si>
     <t>30.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">22.06. – 04.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz (6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.10. – 31.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 02.01.</t>
+    <t>22.06. – 04.08.</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz (6)</t>
+  </si>
+  <si>
+    <t>17.10. – 31.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 02.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">03.04. – 06.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.05. – 07.06.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.07. – 01.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saarland (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.10. - 04.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.12. – 04.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.02. – 24.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.04. – 12.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.05. – 02.06.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.07. – 01.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.10. – 29.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.12. – 02.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.02. – 24.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.04. – 15.04.</t>
+    <t>03.04. – 06.04.</t>
+  </si>
+  <si>
+    <t>30.05. – 07.06.</t>
+  </si>
+  <si>
+    <t>24.07. – 01.09.</t>
+  </si>
+  <si>
+    <t>Saarland (1)</t>
+  </si>
+  <si>
+    <t>24.10. - 04.11.</t>
+  </si>
+  <si>
+    <t>22.12. – 04.01.</t>
+  </si>
+  <si>
+    <t>20.02. – 24.02.</t>
+  </si>
+  <si>
+    <t>03.04. – 12.04.</t>
+  </si>
+  <si>
+    <t>30.05. – 02.06.</t>
+  </si>
+  <si>
+    <t>24.07. – 01.09.</t>
+  </si>
+  <si>
+    <t>Sachsen (1)</t>
+  </si>
+  <si>
+    <t>17.10. – 29.10.</t>
+  </si>
+  <si>
+    <t>22.12. – 02.01.</t>
+  </si>
+  <si>
+    <t>13.02. – 24.02.</t>
+  </si>
+  <si>
+    <t>07.04. – 15.04.</t>
   </si>
   <si>
     <t>19.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">10.07. – 18.08.</t>
+    <t>10.07. – 18.08.</t>
   </si>
   <si>
     <t>Sachsen-Anhalt</t>
   </si>
   <si>
-    <t xml:space="preserve">24.10. – 04.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.12. – 05.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.02. – 11.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.04. – 08.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.05. – 19.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.07. – 16.08.</t>
+    <t>24.10. – 04.11.</t>
+  </si>
+  <si>
+    <t>21.12. – 05.01.</t>
+  </si>
+  <si>
+    <t>06.02. – 11.02.</t>
+  </si>
+  <si>
+    <t>03.04. – 08.04.</t>
+  </si>
+  <si>
+    <t>15.05. – 19.05.</t>
+  </si>
+  <si>
+    <t>06.07. – 16.08.</t>
   </si>
   <si>
     <r>
@@ -464,60 +433,60 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">10.10. – 21.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. – 07.01.</t>
+    <t>10.10. – 21.10.</t>
+  </si>
+  <si>
+    <t>23.12. – 07.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">06.04. – 22.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.05. – 20.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.07. – 26.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thüringen (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.10. – 29.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.12. – 03.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.02. – 17.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.04. – 15.04.</t>
+    <t>06.04. – 22.04.</t>
+  </si>
+  <si>
+    <t>19.05. – 20.05.</t>
+  </si>
+  <si>
+    <t>17.07. – 26.08.</t>
+  </si>
+  <si>
+    <t>Thüringen (2)</t>
+  </si>
+  <si>
+    <t>17.10. – 29.10.</t>
+  </si>
+  <si>
+    <t>22.12. – 03.01.</t>
+  </si>
+  <si>
+    <t>13.02. – 17.02.</t>
+  </si>
+  <si>
+    <t>03.04. – 15.04.</t>
   </si>
   <si>
     <t>19.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">10.07. – 19.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*in Klammern ist die Zahl der beweglichen Ferientage angegeben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand: 16.01.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angegeben ist jeweils der erste und letzte Ferientag.</t>
+    <t>10.07. – 19.08.</t>
+  </si>
+  <si>
+    <t>*in Klammern ist die Zahl der beweglichen Ferientage angegeben.</t>
+  </si>
+  <si>
+    <t>Stand: 16.01.2020</t>
+  </si>
+  <si>
+    <t>Angegeben ist jeweils der erste und letzte Ferientag.</t>
   </si>
   <si>
     <t/>
@@ -541,49 +510,49 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferientermine dem Sekretariat der Kultusministerkonferenz, das sie als Übersicht veröffentlicht. Konkrete Nachfragen bezüglich der Ferienregelungen sind bei den</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Schulverwaltungen der Länder zu stellen.</t>
+    <t>Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ferientermine dem Sekretariat der Kultusministerkonferenz, das sie als Übersicht veröffentlicht. Konkrete Nachfragen bezüglich der Ferienregelungen sind bei den</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Schulverwaltungen der Länder zu stellen.</t>
   </si>
   <si>
     <t/>
@@ -604,7 +573,7 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Schul- und unterrichtsfreie Tage sind kursiv gekennzeichnet.</t>
+    <t>Schul- und unterrichtsfreie Tage sind kursiv gekennzeichnet.</t>
   </si>
   <si>
     <t/>
@@ -625,73 +594,73 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Veröffentlichung erfolgt fortlaufend.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">SH - Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekretariat der Kultusministerkonferenz</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Taubenstraße 10 · 10117 Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postfach 11 03 42 · 10833 Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel.: 030 25418-499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graurheindorfer Straße 157 · 53117 Bonn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postfach 22 40 · 53012 Bonn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel.: 0228 501-0</t>
+    <t>Die Veröffentlichung erfolgt fortlaufend.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SH - Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sekretariat der Kultusministerkonferenz</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Taubenstraße 10 · 10117 Berlin</t>
+  </si>
+  <si>
+    <t>Postfach 11 03 42 · 10833 Berlin</t>
+  </si>
+  <si>
+    <t>Tel.: 030 25418-499</t>
+  </si>
+  <si>
+    <t>Graurheindorfer Straße 157 · 53117 Bonn</t>
+  </si>
+  <si>
+    <t>Postfach 22 40 · 53012 Bonn</t>
+  </si>
+  <si>
+    <t>Tel.: 0228 501-0</t>
   </si>
   <si>
     <t/>
@@ -700,28 +669,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <color rgb="FF0000FF"/>
-      <sz val="9"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -760,6 +712,20 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -806,33 +772,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -840,24 +809,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1134,12 +1106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27"/>
     <col min="2" max="2" width="24"/>
@@ -1150,648 +1124,640 @@
     <col min="7" max="7" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="18" customHeight="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="20" customHeight="1">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="26" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="27" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="27" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="27" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="G8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="27" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="G9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="G10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="G14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="G15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="21" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="G16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="G17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="C23" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="D23" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="E23" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="F23" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="G23" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A23" s="11">
-        <v>1</v>
-      </c>
-      <c r="B23" s="9" t="s">
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="B24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="C24" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="D24" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="E24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="F24" s="15" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="G24" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="D25" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="E25" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="F25" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="G25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="12" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="D26" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="E26" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="F26" s="15" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="G26" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="D27" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="E27" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="F27" s="15" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="G27" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="D28" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="E28" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="F28" s="15" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="G28" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="9" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="10">
+        <v>2</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F29" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G29" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A29" s="13">
-        <v>2</v>
-      </c>
-      <c r="B29" s="14" t="s">
+    <row r="30" spans="1:7" ht="11" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="B30" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="C30" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="D30" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="E30" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="F30" s="17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25" ht="11" customHeight="1">
-      <c r="A30" s="14" t="s">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="11" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D31" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E31" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F31" s="16" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25" ht="11" customHeight="1">
-      <c r="A31" s="14" t="s">
+      <c r="G31" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Daten/Schulferien/FER2022_23.xlsx
+++ b/Daten/Schulferien/FER2022_23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achim\OneDrive\Hochschule\DSC_Semester4\Data Analytics and Business Intelligence 2\Projekt\dabi2-project\Daten\Schulferien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46604028-1E5B-4F9C-8533-FB2405B007D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{46604028-1E5B-4F9C-8533-FB2405B007D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D40B24-EB2F-424B-8C61-EB10EF0F30BB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Land*</t>
   </si>
@@ -479,198 +479,12 @@
   <si>
     <t>10.07. – 19.08.</t>
   </si>
-  <si>
-    <t>*in Klammern ist die Zahl der beweglichen Ferientage angegeben.</t>
-  </si>
-  <si>
-    <t>Stand: 16.01.2020</t>
-  </si>
-  <si>
-    <t>Angegeben ist jeweils der erste und letzte Ferientag.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ferientermine dem Sekretariat der Kultusministerkonferenz, das sie als Übersicht veröffentlicht. Konkrete Nachfragen bezüglich der Ferienregelungen sind bei den</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Schulverwaltungen der Länder zu stellen.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Schul- und unterrichtsfreie Tage sind kursiv gekennzeichnet.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Die Veröffentlichung erfolgt fortlaufend.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SH - Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sekretariat der Kultusministerkonferenz</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Taubenstraße 10 · 10117 Berlin</t>
-  </si>
-  <si>
-    <t>Postfach 11 03 42 · 10833 Berlin</t>
-  </si>
-  <si>
-    <t>Tel.: 030 25418-499</t>
-  </si>
-  <si>
-    <t>Graurheindorfer Straße 157 · 53117 Bonn</t>
-  </si>
-  <si>
-    <t>Postfach 22 40 · 53012 Bonn</t>
-  </si>
-  <si>
-    <t>Tel.: 0228 501-0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -685,32 +499,6 @@
       <i/>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -736,7 +524,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -759,20 +547,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -790,42 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,10 +853,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27"/>
     <col min="2" max="2" width="24"/>
@@ -1124,7 +867,7 @@
     <col min="7" max="7" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1193,7 +936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1239,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1262,7 +1005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1285,7 +1028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1331,7 +1074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
@@ -1354,7 +1097,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -1377,7 +1120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1400,7 +1143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
@@ -1423,7 +1166,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
@@ -1446,7 +1189,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -1469,7 +1212,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
@@ -1492,7 +1235,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>112</v>
       </c>
@@ -1515,250 +1258,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="8">
-        <v>1</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="10">
-        <v>2</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="11" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="11" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>